--- a/CAPE.xlsx
+++ b/CAPE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlyoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_85D746D118370A79D75AABC8215C4D587982BAA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,32 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SQL Results'!$A$1:$AX$197</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="159">
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>YEAR_MONTH</t>
   </si>
@@ -172,19 +193,16 @@
     <t>DAY_HIRE</t>
   </si>
   <si>
-    <t>CAPE</t>
-  </si>
-  <si>
-    <t>OWNED</t>
-  </si>
-  <si>
-    <t>TC</t>
+    <t>201501</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
-    <t>201501</t>
+    <t>CAPE</t>
+  </si>
+  <si>
+    <t>OWNED</t>
   </si>
   <si>
     <t>201502</t>
@@ -496,6 +514,9 @@
     <t>202308</t>
   </si>
   <si>
+    <t>TC</t>
+  </si>
+  <si>
     <t>WITH STD AS
 (SELECT B.YEAR_MONTH, B.CB_TYPE, B.VSL_TYPE, B.TC_TYPE
      , NVL(A.CB_INDEX, NVL(C.IDX_AMT, 0)) AS CB_INDEX, NVL(A.DAY_CB, 0) AS DAY_CB, NVL(A.DAY_HIRE, 0) AS DAY_HIRE
@@ -799,16 +820,12 @@
 AND     UPPER(SDS.VSL_TYPE) IN ('CAPE','S''MAX')
 ORDER BY 1,2,3,4</t>
   </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -873,9 +890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -913,9 +930,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,7 +967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +1002,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1158,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1166,7 +1183,7 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1190,173 +1207,173 @@
     <col min="50" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
       </c>
       <c r="F2">
         <v>627</v>
@@ -1494,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3">
         <v>109</v>
       </c>
@@ -1502,13 +1519,13 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>612</v>
@@ -1646,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4">
         <v>117</v>
       </c>
@@ -1654,13 +1671,13 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>439</v>
@@ -1798,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>125</v>
       </c>
@@ -1806,13 +1823,13 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>508</v>
@@ -1950,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6">
         <v>133</v>
       </c>
@@ -1958,13 +1975,13 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>782</v>
@@ -2102,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>141</v>
       </c>
@@ -2110,13 +2127,13 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>1043</v>
@@ -2254,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8">
         <v>149</v>
       </c>
@@ -2262,13 +2279,13 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>1632</v>
@@ -2406,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>157</v>
       </c>
@@ -2414,13 +2431,13 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>1890</v>
@@ -2558,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10">
         <v>165</v>
       </c>
@@ -2566,13 +2583,13 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>1547</v>
@@ -2710,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>173</v>
       </c>
@@ -2718,13 +2735,13 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>1516</v>
@@ -2862,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12">
         <v>181</v>
       </c>
@@ -2870,13 +2887,13 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>883</v>
@@ -3014,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>189</v>
       </c>
@@ -3022,13 +3039,13 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>718</v>
@@ -3166,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14">
         <v>197</v>
       </c>
@@ -3174,13 +3191,13 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>278</v>
@@ -3318,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15">
         <v>205</v>
       </c>
@@ -3326,13 +3343,13 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>203</v>
@@ -3470,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16">
         <v>213</v>
       </c>
@@ -3478,13 +3495,13 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>187</v>
@@ -3622,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17">
         <v>221</v>
       </c>
@@ -3630,13 +3647,13 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>846</v>
@@ -3774,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18">
         <v>229</v>
       </c>
@@ -3782,13 +3799,13 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>860</v>
@@ -3926,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19">
         <v>237</v>
       </c>
@@ -3934,13 +3951,13 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>938</v>
@@ -4078,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20">
         <v>245</v>
       </c>
@@ -4086,13 +4103,13 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>952</v>
@@ -4230,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21">
         <v>253</v>
       </c>
@@ -4238,13 +4255,13 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>857</v>
@@ -4382,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22">
         <v>261</v>
       </c>
@@ -4390,13 +4407,13 @@
         <v>73</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>1733</v>
@@ -4534,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23">
         <v>269</v>
       </c>
@@ -4542,13 +4559,13 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>1827</v>
@@ -4686,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24">
         <v>277</v>
       </c>
@@ -4694,13 +4711,13 @@
         <v>75</v>
       </c>
       <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>2158</v>
@@ -4838,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25">
         <v>285</v>
       </c>
@@ -4846,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>1518</v>
@@ -4990,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26">
         <v>293</v>
       </c>
@@ -4998,13 +5015,13 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>1473</v>
@@ -5142,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27">
         <v>301</v>
       </c>
@@ -5150,13 +5167,13 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>859</v>
@@ -5294,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28">
         <v>309</v>
       </c>
@@ -5302,13 +5319,13 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>2060</v>
@@ -5446,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29">
         <v>317</v>
       </c>
@@ -5454,13 +5471,13 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>2081</v>
@@ -5598,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30">
         <v>325</v>
       </c>
@@ -5606,13 +5623,13 @@
         <v>81</v>
       </c>
       <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>1616</v>
@@ -5750,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31">
         <v>333</v>
       </c>
@@ -5758,13 +5775,13 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>1239</v>
@@ -5902,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32">
         <v>341</v>
       </c>
@@ -5910,13 +5927,13 @@
         <v>83</v>
       </c>
       <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>999</v>
@@ -6054,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33">
         <v>349</v>
       </c>
@@ -6062,13 +6079,13 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
         <v>52</v>
       </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>2080</v>
@@ -6206,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34">
         <v>357</v>
       </c>
@@ -6214,13 +6231,13 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>2727</v>
@@ -6358,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35">
         <v>365</v>
       </c>
@@ -6366,13 +6383,13 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>3006</v>
@@ -6510,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36">
         <v>373</v>
       </c>
@@ -6518,13 +6535,13 @@
         <v>87</v>
       </c>
       <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>3304</v>
@@ -6662,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37">
         <v>381</v>
       </c>
@@ -6670,13 +6687,13 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>3847</v>
@@ -6814,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38">
         <v>389</v>
       </c>
@@ -6822,13 +6839,13 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>2074</v>
@@ -6966,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39">
         <v>397</v>
       </c>
@@ -6974,13 +6991,13 @@
         <v>90</v>
       </c>
       <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>1643</v>
@@ -7118,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40">
         <v>405</v>
       </c>
@@ -7126,13 +7143,13 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>1309</v>
@@ -7270,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41">
         <v>413</v>
       </c>
@@ -7278,13 +7295,13 @@
         <v>92</v>
       </c>
       <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>1426</v>
@@ -7422,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42">
         <v>421</v>
       </c>
@@ -7430,13 +7447,13 @@
         <v>93</v>
       </c>
       <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>2076</v>
@@ -7574,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43">
         <v>429</v>
       </c>
@@ -7582,13 +7599,13 @@
         <v>94</v>
       </c>
       <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>2045</v>
@@ -7726,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44">
         <v>437</v>
       </c>
@@ -7734,13 +7751,13 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>3093</v>
@@ -7878,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45">
         <v>445</v>
       </c>
@@ -7886,13 +7903,13 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>3372</v>
@@ -8030,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46">
         <v>453</v>
       </c>
@@ -8038,13 +8055,13 @@
         <v>97</v>
       </c>
       <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>2088</v>
@@ -8182,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47">
         <v>461</v>
       </c>
@@ -8190,13 +8207,13 @@
         <v>98</v>
       </c>
       <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>2234</v>
@@ -8334,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48">
         <v>469</v>
       </c>
@@ -8342,13 +8359,13 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>1627</v>
@@ -8486,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49">
         <v>477</v>
       </c>
@@ -8494,13 +8511,13 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>2106</v>
@@ -8638,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50">
         <v>485</v>
       </c>
@@ -8646,13 +8663,13 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>1830</v>
@@ -8790,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50">
       <c r="A51">
         <v>493</v>
       </c>
@@ -8798,13 +8815,13 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>710</v>
@@ -8942,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50">
       <c r="A52">
         <v>501</v>
       </c>
@@ -8950,13 +8967,13 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>300</v>
@@ -9094,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50">
       <c r="A53">
         <v>509</v>
       </c>
@@ -9102,13 +9119,13 @@
         <v>104</v>
       </c>
       <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>474</v>
@@ -9246,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:50">
       <c r="A54">
         <v>517</v>
       </c>
@@ -9254,13 +9271,13 @@
         <v>105</v>
       </c>
       <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>1442</v>
@@ -9398,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:50">
       <c r="A55">
         <v>525</v>
       </c>
@@ -9406,13 +9423,13 @@
         <v>106</v>
       </c>
       <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
-        <v>49</v>
-      </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>2006</v>
@@ -9550,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:50">
       <c r="A56">
         <v>533</v>
       </c>
@@ -9558,13 +9575,13 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
-        <v>49</v>
-      </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>3609</v>
@@ -9702,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:50">
       <c r="A57">
         <v>541</v>
       </c>
@@ -9710,13 +9727,13 @@
         <v>108</v>
       </c>
       <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>3673</v>
@@ -9854,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:50">
       <c r="A58">
         <v>549</v>
       </c>
@@ -9862,13 +9879,13 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
         <v>52</v>
       </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>4356</v>
@@ -10006,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50">
       <c r="A59">
         <v>557</v>
       </c>
@@ -10014,13 +10031,13 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>3093</v>
@@ -10158,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:50">
       <c r="A60">
         <v>565</v>
       </c>
@@ -10166,13 +10183,13 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" t="s">
-        <v>49</v>
-      </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>2691</v>
@@ -10310,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:50">
       <c r="A61">
         <v>573</v>
       </c>
@@ -10318,13 +10335,13 @@
         <v>112</v>
       </c>
       <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>2672</v>
@@ -10462,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:50">
       <c r="A62">
         <v>581</v>
       </c>
@@ -10470,13 +10487,13 @@
         <v>113</v>
       </c>
       <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
         <v>52</v>
       </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>714</v>
@@ -10614,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50">
       <c r="A63">
         <v>589</v>
       </c>
@@ -10622,13 +10639,13 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
         <v>52</v>
       </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <v>-243</v>
@@ -10766,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50">
       <c r="A64">
         <v>597</v>
       </c>
@@ -10774,13 +10791,13 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
         <v>52</v>
       </c>
-      <c r="D64" t="s">
-        <v>49</v>
-      </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <v>-222</v>
@@ -10918,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50">
       <c r="A65">
         <v>605</v>
       </c>
@@ -10926,13 +10943,13 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" t="s">
-        <v>49</v>
-      </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>726</v>
@@ -11070,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50">
       <c r="A66">
         <v>613</v>
       </c>
@@ -11078,13 +11095,13 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="D66" t="s">
-        <v>49</v>
-      </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <v>247</v>
@@ -11222,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50">
       <c r="A67">
         <v>621</v>
       </c>
@@ -11230,13 +11247,13 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
         <v>52</v>
       </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <v>2267</v>
@@ -11374,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50">
       <c r="A68">
         <v>629</v>
       </c>
@@ -11382,13 +11399,13 @@
         <v>119</v>
       </c>
       <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
         <v>52</v>
       </c>
-      <c r="D68" t="s">
-        <v>49</v>
-      </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F68">
         <v>3024</v>
@@ -11526,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50">
       <c r="A69">
         <v>637</v>
       </c>
@@ -11534,13 +11551,13 @@
         <v>120</v>
       </c>
       <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
         <v>52</v>
       </c>
-      <c r="D69" t="s">
-        <v>49</v>
-      </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>2335</v>
@@ -11678,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50">
       <c r="A70">
         <v>645</v>
       </c>
@@ -11686,13 +11703,13 @@
         <v>121</v>
       </c>
       <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
         <v>52</v>
       </c>
-      <c r="D70" t="s">
-        <v>49</v>
-      </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>2179</v>
@@ -11830,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50">
       <c r="A71">
         <v>653</v>
       </c>
@@ -11838,13 +11855,13 @@
         <v>122</v>
       </c>
       <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
         <v>52</v>
       </c>
-      <c r="D71" t="s">
-        <v>49</v>
-      </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F71">
         <v>2850</v>
@@ -11982,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50">
       <c r="A72">
         <v>661</v>
       </c>
@@ -11990,13 +12007,13 @@
         <v>123</v>
       </c>
       <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="s">
         <v>52</v>
       </c>
-      <c r="D72" t="s">
-        <v>49</v>
-      </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <v>1588</v>
@@ -12134,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50">
       <c r="A73">
         <v>669</v>
       </c>
@@ -12142,13 +12159,13 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
         <v>52</v>
       </c>
-      <c r="D73" t="s">
-        <v>49</v>
-      </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <v>1587</v>
@@ -12286,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50">
       <c r="A74">
         <v>677</v>
       </c>
@@ -12294,13 +12311,13 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" t="s">
         <v>52</v>
       </c>
-      <c r="D74" t="s">
-        <v>49</v>
-      </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>2614</v>
@@ -12438,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50">
       <c r="A75">
         <v>685</v>
       </c>
@@ -12446,13 +12463,13 @@
         <v>126</v>
       </c>
       <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
         <v>52</v>
       </c>
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F75">
         <v>1535</v>
@@ -12590,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50">
       <c r="A76">
         <v>693</v>
       </c>
@@ -12598,13 +12615,13 @@
         <v>127</v>
       </c>
       <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" t="s">
-        <v>49</v>
-      </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>2048</v>
@@ -12742,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50">
       <c r="A77">
         <v>701</v>
       </c>
@@ -12750,13 +12767,13 @@
         <v>128</v>
       </c>
       <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
         <v>52</v>
       </c>
-      <c r="D77" t="s">
-        <v>49</v>
-      </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F77">
         <v>3593</v>
@@ -12894,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50">
       <c r="A78">
         <v>709</v>
       </c>
@@ -12902,13 +12919,13 @@
         <v>129</v>
       </c>
       <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
         <v>52</v>
       </c>
-      <c r="D78" t="s">
-        <v>49</v>
-      </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>4282</v>
@@ -13046,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:50">
       <c r="A79">
         <v>717</v>
       </c>
@@ -13054,13 +13071,13 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" t="s">
         <v>52</v>
       </c>
-      <c r="D79" t="s">
-        <v>49</v>
-      </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <v>3441</v>
@@ -13198,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50">
       <c r="A80">
         <v>725</v>
       </c>
@@ -13206,13 +13223,13 @@
         <v>131</v>
       </c>
       <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
         <v>52</v>
       </c>
-      <c r="D80" t="s">
-        <v>49</v>
-      </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>3665</v>
@@ -13350,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50">
       <c r="A81">
         <v>733</v>
       </c>
@@ -13358,13 +13375,13 @@
         <v>132</v>
       </c>
       <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
         <v>52</v>
       </c>
-      <c r="D81" t="s">
-        <v>49</v>
-      </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>5117</v>
@@ -13502,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50">
       <c r="A82">
         <v>741</v>
       </c>
@@ -13510,13 +13527,13 @@
         <v>133</v>
       </c>
       <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
         <v>52</v>
       </c>
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F82">
         <v>6549</v>
@@ -13654,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:50">
       <c r="A83">
         <v>749</v>
       </c>
@@ -13662,13 +13679,13 @@
         <v>134</v>
       </c>
       <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
         <v>52</v>
       </c>
-      <c r="D83" t="s">
-        <v>49</v>
-      </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F83">
         <v>7798</v>
@@ -13806,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:50">
       <c r="A84">
         <v>757</v>
       </c>
@@ -13814,13 +13831,13 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
         <v>52</v>
       </c>
-      <c r="D84" t="s">
-        <v>49</v>
-      </c>
       <c r="E84" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>3704</v>
@@ -13958,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:50">
       <c r="A85">
         <v>765</v>
       </c>
@@ -13966,13 +13983,13 @@
         <v>136</v>
       </c>
       <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
         <v>52</v>
       </c>
-      <c r="D85" t="s">
-        <v>49</v>
-      </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>3802</v>
@@ -14110,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50">
       <c r="A86">
         <v>773</v>
       </c>
@@ -14118,13 +14135,13 @@
         <v>137</v>
       </c>
       <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
         <v>52</v>
       </c>
-      <c r="D86" t="s">
-        <v>49</v>
-      </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>1549</v>
@@ -14262,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50">
       <c r="A87">
         <v>781</v>
       </c>
@@ -14270,13 +14287,13 @@
         <v>138</v>
       </c>
       <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
         <v>52</v>
       </c>
-      <c r="D87" t="s">
-        <v>49</v>
-      </c>
       <c r="E87" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>1610</v>
@@ -14414,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50">
       <c r="A88">
         <v>789</v>
       </c>
@@ -14422,13 +14439,13 @@
         <v>139</v>
       </c>
       <c r="C88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" t="s">
         <v>52</v>
       </c>
-      <c r="D88" t="s">
-        <v>49</v>
-      </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>2124</v>
@@ -14566,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50">
       <c r="A89">
         <v>797</v>
       </c>
@@ -14574,13 +14591,13 @@
         <v>140</v>
       </c>
       <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" t="s">
         <v>52</v>
       </c>
-      <c r="D89" t="s">
-        <v>49</v>
-      </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>1690</v>
@@ -14718,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50">
       <c r="A90">
         <v>805</v>
       </c>
@@ -14726,13 +14743,13 @@
         <v>141</v>
       </c>
       <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
         <v>52</v>
       </c>
-      <c r="D90" t="s">
-        <v>49</v>
-      </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>3514</v>
@@ -14870,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:50">
       <c r="A91">
         <v>813</v>
       </c>
@@ -14878,13 +14895,13 @@
         <v>142</v>
       </c>
       <c r="C91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" t="s">
         <v>52</v>
       </c>
-      <c r="D91" t="s">
-        <v>49</v>
-      </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>2518</v>
@@ -15022,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50">
       <c r="A92">
         <v>821</v>
       </c>
@@ -15030,13 +15047,13 @@
         <v>143</v>
       </c>
       <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
         <v>52</v>
       </c>
-      <c r="D92" t="s">
-        <v>49</v>
-      </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>2432</v>
@@ -15174,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:50">
       <c r="A93">
         <v>829</v>
       </c>
@@ -15182,13 +15199,13 @@
         <v>144</v>
       </c>
       <c r="C93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" t="s">
         <v>52</v>
       </c>
-      <c r="D93" t="s">
-        <v>49</v>
-      </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>1126</v>
@@ -15326,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50">
       <c r="A94">
         <v>837</v>
       </c>
@@ -15334,13 +15351,13 @@
         <v>145</v>
       </c>
       <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
         <v>52</v>
       </c>
-      <c r="D94" t="s">
-        <v>49</v>
-      </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>1421</v>
@@ -15478,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50">
       <c r="A95">
         <v>845</v>
       </c>
@@ -15486,13 +15503,13 @@
         <v>146</v>
       </c>
       <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
         <v>52</v>
       </c>
-      <c r="D95" t="s">
-        <v>49</v>
-      </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F95">
         <v>2117</v>
@@ -15630,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:50">
       <c r="A96">
         <v>853</v>
       </c>
@@ -15638,13 +15655,13 @@
         <v>147</v>
       </c>
       <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
         <v>52</v>
       </c>
-      <c r="D96" t="s">
-        <v>49</v>
-      </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>1399</v>
@@ -15782,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:50">
       <c r="A97">
         <v>861</v>
       </c>
@@ -15790,13 +15807,13 @@
         <v>148</v>
       </c>
       <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
         <v>52</v>
       </c>
-      <c r="D97" t="s">
-        <v>49</v>
-      </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F97">
         <v>1918</v>
@@ -15934,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:50">
       <c r="A98">
         <v>869</v>
       </c>
@@ -15942,13 +15959,13 @@
         <v>149</v>
       </c>
       <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
         <v>52</v>
       </c>
-      <c r="D98" t="s">
-        <v>49</v>
-      </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <v>1093</v>
@@ -16086,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:50">
       <c r="A99">
         <v>877</v>
       </c>
@@ -16094,13 +16111,13 @@
         <v>150</v>
       </c>
       <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" t="s">
         <v>52</v>
       </c>
-      <c r="D99" t="s">
-        <v>49</v>
-      </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>452</v>
@@ -16238,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:50">
       <c r="A100">
         <v>885</v>
       </c>
@@ -16246,13 +16263,13 @@
         <v>151</v>
       </c>
       <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
         <v>52</v>
       </c>
-      <c r="D100" t="s">
-        <v>49</v>
-      </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>1677</v>
@@ -16390,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:50">
       <c r="A101">
         <v>893</v>
       </c>
@@ -16398,13 +16415,13 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
         <v>52</v>
       </c>
-      <c r="D101" t="s">
-        <v>49</v>
-      </c>
       <c r="E101" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>1921</v>
@@ -16542,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:50">
       <c r="A102">
         <v>901</v>
       </c>
@@ -16550,13 +16567,13 @@
         <v>153</v>
       </c>
       <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
         <v>52</v>
       </c>
-      <c r="D102" t="s">
-        <v>49</v>
-      </c>
       <c r="E102" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F102">
         <v>2143</v>
@@ -16694,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:50">
       <c r="A103">
         <v>909</v>
       </c>
@@ -16702,13 +16719,13 @@
         <v>154</v>
       </c>
       <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
         <v>52</v>
       </c>
-      <c r="D103" t="s">
-        <v>49</v>
-      </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F103">
         <v>1597</v>
@@ -16846,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:50">
       <c r="A104">
         <v>917</v>
       </c>
@@ -16854,13 +16871,13 @@
         <v>155</v>
       </c>
       <c r="C104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" t="s">
         <v>52</v>
       </c>
-      <c r="D104" t="s">
-        <v>49</v>
-      </c>
       <c r="E104" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>1591</v>
@@ -16998,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:50">
       <c r="A105">
         <v>925</v>
       </c>
@@ -17006,13 +17023,13 @@
         <v>156</v>
       </c>
       <c r="C105" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" t="s">
         <v>52</v>
       </c>
-      <c r="D105" t="s">
-        <v>49</v>
-      </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F105">
         <v>1561</v>
@@ -17150,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:50">
       <c r="A106">
         <v>198</v>
       </c>
@@ -17158,13 +17175,13 @@
         <v>65</v>
       </c>
       <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-      <c r="D106" t="s">
-        <v>49</v>
-      </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F106">
         <v>278</v>
@@ -17302,7 +17319,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:50">
       <c r="A107">
         <v>206</v>
       </c>
@@ -17310,13 +17327,13 @@
         <v>66</v>
       </c>
       <c r="C107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" t="s">
         <v>52</v>
       </c>
-      <c r="D107" t="s">
-        <v>49</v>
-      </c>
       <c r="E107" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F107">
         <v>203</v>
@@ -17454,7 +17471,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:50">
       <c r="A108">
         <v>214</v>
       </c>
@@ -17462,13 +17479,13 @@
         <v>67</v>
       </c>
       <c r="C108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" t="s">
         <v>52</v>
       </c>
-      <c r="D108" t="s">
-        <v>49</v>
-      </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F108">
         <v>187</v>
@@ -17606,7 +17623,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:50">
       <c r="A109">
         <v>222</v>
       </c>
@@ -17614,13 +17631,13 @@
         <v>68</v>
       </c>
       <c r="C109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" t="s">
         <v>52</v>
       </c>
-      <c r="D109" t="s">
-        <v>49</v>
-      </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F109">
         <v>846</v>
@@ -17758,7 +17775,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:50">
       <c r="A110">
         <v>230</v>
       </c>
@@ -17766,13 +17783,13 @@
         <v>69</v>
       </c>
       <c r="C110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" t="s">
         <v>52</v>
       </c>
-      <c r="D110" t="s">
-        <v>49</v>
-      </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F110">
         <v>860</v>
@@ -17910,7 +17927,7 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:50">
       <c r="A111">
         <v>238</v>
       </c>
@@ -17918,13 +17935,13 @@
         <v>70</v>
       </c>
       <c r="C111" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" t="s">
         <v>52</v>
       </c>
-      <c r="D111" t="s">
-        <v>49</v>
-      </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F111">
         <v>938</v>
@@ -18062,7 +18079,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:50">
       <c r="A112">
         <v>246</v>
       </c>
@@ -18070,13 +18087,13 @@
         <v>71</v>
       </c>
       <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" t="s">
         <v>52</v>
       </c>
-      <c r="D112" t="s">
-        <v>49</v>
-      </c>
       <c r="E112" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F112">
         <v>952</v>
@@ -18214,7 +18231,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:50">
       <c r="A113">
         <v>254</v>
       </c>
@@ -18222,13 +18239,13 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" t="s">
         <v>52</v>
       </c>
-      <c r="D113" t="s">
-        <v>49</v>
-      </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F113">
         <v>857</v>
@@ -18366,7 +18383,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:50">
       <c r="A114">
         <v>262</v>
       </c>
@@ -18374,13 +18391,13 @@
         <v>73</v>
       </c>
       <c r="C114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" t="s">
         <v>52</v>
       </c>
-      <c r="D114" t="s">
-        <v>49</v>
-      </c>
       <c r="E114" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F114">
         <v>1733</v>
@@ -18518,7 +18535,7 @@
         <v>6637</v>
       </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:50">
       <c r="A115">
         <v>270</v>
       </c>
@@ -18526,13 +18543,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
         <v>52</v>
       </c>
-      <c r="D115" t="s">
-        <v>49</v>
-      </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F115">
         <v>1827</v>
@@ -18670,7 +18687,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:50">
       <c r="A116">
         <v>278</v>
       </c>
@@ -18678,13 +18695,13 @@
         <v>75</v>
       </c>
       <c r="C116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" t="s">
         <v>52</v>
       </c>
-      <c r="D116" t="s">
-        <v>49</v>
-      </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F116">
         <v>2158</v>
@@ -18822,7 +18839,7 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:50">
       <c r="A117">
         <v>286</v>
       </c>
@@ -18830,13 +18847,13 @@
         <v>76</v>
       </c>
       <c r="C117" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" t="s">
         <v>52</v>
       </c>
-      <c r="D117" t="s">
-        <v>49</v>
-      </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F117">
         <v>1518</v>
@@ -18974,7 +18991,7 @@
         <v>7780</v>
       </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:50">
       <c r="A118">
         <v>294</v>
       </c>
@@ -18982,13 +18999,13 @@
         <v>77</v>
       </c>
       <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" t="s">
         <v>52</v>
       </c>
-      <c r="D118" t="s">
-        <v>49</v>
-      </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F118">
         <v>1473</v>
@@ -19126,7 +19143,7 @@
         <v>7015</v>
       </c>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:50">
       <c r="A119">
         <v>302</v>
       </c>
@@ -19134,13 +19151,13 @@
         <v>78</v>
       </c>
       <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
         <v>52</v>
       </c>
-      <c r="D119" t="s">
-        <v>49</v>
-      </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F119">
         <v>859</v>
@@ -19278,7 +19295,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:50">
       <c r="A120">
         <v>310</v>
       </c>
@@ -19286,13 +19303,13 @@
         <v>79</v>
       </c>
       <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" t="s">
         <v>52</v>
       </c>
-      <c r="D120" t="s">
-        <v>49</v>
-      </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F120">
         <v>2060</v>
@@ -19430,7 +19447,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:50">
       <c r="A121">
         <v>318</v>
       </c>
@@ -19438,13 +19455,13 @@
         <v>80</v>
       </c>
       <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" t="s">
         <v>52</v>
       </c>
-      <c r="D121" t="s">
-        <v>49</v>
-      </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F121">
         <v>2081</v>
@@ -19582,7 +19599,7 @@
         <v>8815</v>
       </c>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:50">
       <c r="A122">
         <v>326</v>
       </c>
@@ -19590,13 +19607,13 @@
         <v>81</v>
       </c>
       <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" t="s">
         <v>52</v>
       </c>
-      <c r="D122" t="s">
-        <v>49</v>
-      </c>
       <c r="E122" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F122">
         <v>1616</v>
@@ -19734,7 +19751,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:50">
       <c r="A123">
         <v>334</v>
       </c>
@@ -19742,13 +19759,13 @@
         <v>82</v>
       </c>
       <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" t="s">
         <v>52</v>
       </c>
-      <c r="D123" t="s">
-        <v>49</v>
-      </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F123">
         <v>1239</v>
@@ -19886,7 +19903,7 @@
         <v>8898</v>
       </c>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:50">
       <c r="A124">
         <v>342</v>
       </c>
@@ -19894,13 +19911,13 @@
         <v>83</v>
       </c>
       <c r="C124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" t="s">
         <v>52</v>
       </c>
-      <c r="D124" t="s">
-        <v>49</v>
-      </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F124">
         <v>999</v>
@@ -20038,7 +20055,7 @@
         <v>9039</v>
       </c>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:50">
       <c r="A125">
         <v>350</v>
       </c>
@@ -20046,13 +20063,13 @@
         <v>84</v>
       </c>
       <c r="C125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" t="s">
         <v>52</v>
       </c>
-      <c r="D125" t="s">
-        <v>49</v>
-      </c>
       <c r="E125" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F125">
         <v>2080</v>
@@ -20190,7 +20207,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:50">
       <c r="A126">
         <v>358</v>
       </c>
@@ -20198,13 +20215,13 @@
         <v>85</v>
       </c>
       <c r="C126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" t="s">
         <v>52</v>
       </c>
-      <c r="D126" t="s">
-        <v>49</v>
-      </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F126">
         <v>2727</v>
@@ -20342,7 +20359,7 @@
         <v>10037</v>
       </c>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:50">
       <c r="A127">
         <v>366</v>
       </c>
@@ -20350,13 +20367,13 @@
         <v>86</v>
       </c>
       <c r="C127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" t="s">
         <v>52</v>
       </c>
-      <c r="D127" t="s">
-        <v>49</v>
-      </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F127">
         <v>3006</v>
@@ -20494,7 +20511,7 @@
         <v>10734</v>
       </c>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:50">
       <c r="A128">
         <v>374</v>
       </c>
@@ -20502,13 +20519,13 @@
         <v>87</v>
       </c>
       <c r="C128" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" t="s">
         <v>52</v>
       </c>
-      <c r="D128" t="s">
-        <v>49</v>
-      </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F128">
         <v>3304</v>
@@ -20646,7 +20663,7 @@
         <v>11557</v>
       </c>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:50">
       <c r="A129">
         <v>382</v>
       </c>
@@ -20654,13 +20671,13 @@
         <v>88</v>
       </c>
       <c r="C129" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" t="s">
         <v>52</v>
       </c>
-      <c r="D129" t="s">
-        <v>49</v>
-      </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F129">
         <v>3847</v>
@@ -20798,7 +20815,7 @@
         <v>11580</v>
       </c>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:50">
       <c r="A130">
         <v>390</v>
       </c>
@@ -20806,13 +20823,13 @@
         <v>89</v>
       </c>
       <c r="C130" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" t="s">
         <v>52</v>
       </c>
-      <c r="D130" t="s">
-        <v>49</v>
-      </c>
       <c r="E130" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F130">
         <v>2074</v>
@@ -20950,7 +20967,7 @@
         <v>10894</v>
       </c>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:50">
       <c r="A131">
         <v>398</v>
       </c>
@@ -20958,13 +20975,13 @@
         <v>90</v>
       </c>
       <c r="C131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
         <v>52</v>
       </c>
-      <c r="D131" t="s">
-        <v>49</v>
-      </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F131">
         <v>1643</v>
@@ -21102,7 +21119,7 @@
         <v>11386</v>
       </c>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:50">
       <c r="A132">
         <v>406</v>
       </c>
@@ -21110,13 +21127,13 @@
         <v>91</v>
       </c>
       <c r="C132" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" t="s">
         <v>52</v>
       </c>
-      <c r="D132" t="s">
-        <v>49</v>
-      </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F132">
         <v>1309</v>
@@ -21254,7 +21271,7 @@
         <v>11832</v>
       </c>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:50">
       <c r="A133">
         <v>414</v>
       </c>
@@ -21262,13 +21279,13 @@
         <v>92</v>
       </c>
       <c r="C133" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" t="s">
         <v>52</v>
       </c>
-      <c r="D133" t="s">
-        <v>49</v>
-      </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F133">
         <v>1426</v>
@@ -21406,7 +21423,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:50">
       <c r="A134">
         <v>422</v>
       </c>
@@ -21414,13 +21431,13 @@
         <v>93</v>
       </c>
       <c r="C134" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" t="s">
         <v>52</v>
       </c>
-      <c r="D134" t="s">
-        <v>49</v>
-      </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F134">
         <v>2076</v>
@@ -21558,7 +21575,7 @@
         <v>12698</v>
       </c>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:50">
       <c r="A135">
         <v>430</v>
       </c>
@@ -21566,13 +21583,13 @@
         <v>94</v>
       </c>
       <c r="C135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" t="s">
         <v>52</v>
       </c>
-      <c r="D135" t="s">
-        <v>49</v>
-      </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F135">
         <v>2045</v>
@@ -21710,7 +21727,7 @@
         <v>12981</v>
       </c>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:50">
       <c r="A136">
         <v>438</v>
       </c>
@@ -21718,13 +21735,13 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" t="s">
         <v>52</v>
       </c>
-      <c r="D136" t="s">
-        <v>49</v>
-      </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F136">
         <v>3093</v>
@@ -21862,7 +21879,7 @@
         <v>12704</v>
       </c>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:50">
       <c r="A137">
         <v>446</v>
       </c>
@@ -21870,13 +21887,13 @@
         <v>96</v>
       </c>
       <c r="C137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" t="s">
         <v>52</v>
       </c>
-      <c r="D137" t="s">
-        <v>49</v>
-      </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F137">
         <v>3372</v>
@@ -22014,7 +22031,7 @@
         <v>13096</v>
       </c>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:50">
       <c r="A138">
         <v>454</v>
       </c>
@@ -22022,13 +22039,13 @@
         <v>97</v>
       </c>
       <c r="C138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" t="s">
         <v>52</v>
       </c>
-      <c r="D138" t="s">
-        <v>49</v>
-      </c>
       <c r="E138" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F138">
         <v>2088</v>
@@ -22166,7 +22183,7 @@
         <v>13971</v>
       </c>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:50">
       <c r="A139">
         <v>462</v>
       </c>
@@ -22174,13 +22191,13 @@
         <v>98</v>
       </c>
       <c r="C139" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" t="s">
         <v>52</v>
       </c>
-      <c r="D139" t="s">
-        <v>49</v>
-      </c>
       <c r="E139" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F139">
         <v>2234</v>
@@ -22318,7 +22335,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:50">
       <c r="A140">
         <v>470</v>
       </c>
@@ -22326,13 +22343,13 @@
         <v>99</v>
       </c>
       <c r="C140" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" t="s">
         <v>52</v>
       </c>
-      <c r="D140" t="s">
-        <v>49</v>
-      </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F140">
         <v>1627</v>
@@ -22470,7 +22487,7 @@
         <v>13744</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:50">
       <c r="A141">
         <v>478</v>
       </c>
@@ -22478,13 +22495,13 @@
         <v>100</v>
       </c>
       <c r="C141" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" t="s">
         <v>52</v>
       </c>
-      <c r="D141" t="s">
-        <v>49</v>
-      </c>
       <c r="E141" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F141">
         <v>2106</v>
@@ -22622,7 +22639,7 @@
         <v>12161</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:50">
       <c r="A142">
         <v>486</v>
       </c>
@@ -22630,13 +22647,13 @@
         <v>101</v>
       </c>
       <c r="C142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" t="s">
         <v>52</v>
       </c>
-      <c r="D142" t="s">
-        <v>49</v>
-      </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F142">
         <v>1830</v>
@@ -22774,7 +22791,7 @@
         <v>11817</v>
       </c>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:50">
       <c r="A143">
         <v>494</v>
       </c>
@@ -22782,13 +22799,13 @@
         <v>102</v>
       </c>
       <c r="C143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" t="s">
         <v>52</v>
       </c>
-      <c r="D143" t="s">
-        <v>49</v>
-      </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F143">
         <v>710</v>
@@ -22926,7 +22943,7 @@
         <v>10586</v>
       </c>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:50">
       <c r="A144">
         <v>502</v>
       </c>
@@ -22934,13 +22951,13 @@
         <v>103</v>
       </c>
       <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" t="s">
         <v>52</v>
       </c>
-      <c r="D144" t="s">
-        <v>49</v>
-      </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F144">
         <v>300</v>
@@ -23078,7 +23095,7 @@
         <v>9370</v>
       </c>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:50">
       <c r="A145">
         <v>510</v>
       </c>
@@ -23086,13 +23103,13 @@
         <v>104</v>
       </c>
       <c r="C145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" t="s">
         <v>52</v>
       </c>
-      <c r="D145" t="s">
-        <v>49</v>
-      </c>
       <c r="E145" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F145">
         <v>474</v>
@@ -23230,7 +23247,7 @@
         <v>8789</v>
       </c>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:50">
       <c r="A146">
         <v>518</v>
       </c>
@@ -23238,13 +23255,13 @@
         <v>105</v>
       </c>
       <c r="C146" t="s">
+        <v>51</v>
+      </c>
+      <c r="D146" t="s">
         <v>52</v>
       </c>
-      <c r="D146" t="s">
-        <v>49</v>
-      </c>
       <c r="E146" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F146">
         <v>1442</v>
@@ -23382,7 +23399,7 @@
         <v>9469</v>
       </c>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:50">
       <c r="A147">
         <v>526</v>
       </c>
@@ -23390,13 +23407,13 @@
         <v>106</v>
       </c>
       <c r="C147" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" t="s">
         <v>52</v>
       </c>
-      <c r="D147" t="s">
-        <v>49</v>
-      </c>
       <c r="E147" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F147">
         <v>2006</v>
@@ -23534,7 +23551,7 @@
         <v>10623</v>
       </c>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:50">
       <c r="A148">
         <v>534</v>
       </c>
@@ -23542,13 +23559,13 @@
         <v>107</v>
       </c>
       <c r="C148" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" t="s">
         <v>52</v>
       </c>
-      <c r="D148" t="s">
-        <v>49</v>
-      </c>
       <c r="E148" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F148">
         <v>3609</v>
@@ -23686,7 +23703,7 @@
         <v>11725</v>
       </c>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:50">
       <c r="A149">
         <v>542</v>
       </c>
@@ -23694,13 +23711,13 @@
         <v>108</v>
       </c>
       <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
         <v>52</v>
       </c>
-      <c r="D149" t="s">
-        <v>49</v>
-      </c>
       <c r="E149" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F149">
         <v>3673</v>
@@ -23838,7 +23855,7 @@
         <v>13168</v>
       </c>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:50">
       <c r="A150">
         <v>550</v>
       </c>
@@ -23846,13 +23863,13 @@
         <v>109</v>
       </c>
       <c r="C150" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" t="s">
         <v>52</v>
       </c>
-      <c r="D150" t="s">
-        <v>49</v>
-      </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F150">
         <v>4356</v>
@@ -23990,7 +24007,7 @@
         <v>13746</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:50">
       <c r="A151">
         <v>558</v>
       </c>
@@ -23998,13 +24015,13 @@
         <v>110</v>
       </c>
       <c r="C151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
         <v>52</v>
       </c>
-      <c r="D151" t="s">
-        <v>49</v>
-      </c>
       <c r="E151" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F151">
         <v>3093</v>
@@ -24142,7 +24159,7 @@
         <v>14561</v>
       </c>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:50">
       <c r="A152">
         <v>566</v>
       </c>
@@ -24150,13 +24167,13 @@
         <v>111</v>
       </c>
       <c r="C152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
         <v>52</v>
       </c>
-      <c r="D152" t="s">
-        <v>49</v>
-      </c>
       <c r="E152" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F152">
         <v>2691</v>
@@ -24294,7 +24311,7 @@
         <v>15385</v>
       </c>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:50">
       <c r="A153">
         <v>574</v>
       </c>
@@ -24302,13 +24319,13 @@
         <v>112</v>
       </c>
       <c r="C153" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" t="s">
         <v>52</v>
       </c>
-      <c r="D153" t="s">
-        <v>49</v>
-      </c>
       <c r="E153" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F153">
         <v>2672</v>
@@ -24446,7 +24463,7 @@
         <v>13780</v>
       </c>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:50">
       <c r="A154">
         <v>582</v>
       </c>
@@ -24454,13 +24471,13 @@
         <v>113</v>
       </c>
       <c r="C154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" t="s">
         <v>52</v>
       </c>
-      <c r="D154" t="s">
-        <v>49</v>
-      </c>
       <c r="E154" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F154">
         <v>714</v>
@@ -24598,7 +24615,7 @@
         <v>10933</v>
       </c>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:50">
       <c r="A155">
         <v>590</v>
       </c>
@@ -24606,13 +24623,13 @@
         <v>114</v>
       </c>
       <c r="C155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" t="s">
         <v>52</v>
       </c>
-      <c r="D155" t="s">
-        <v>49</v>
-      </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F155">
         <v>-243</v>
@@ -24750,7 +24767,7 @@
         <v>7851</v>
       </c>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:50">
       <c r="A156">
         <v>598</v>
       </c>
@@ -24758,13 +24775,13 @@
         <v>115</v>
       </c>
       <c r="C156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" t="s">
         <v>52</v>
       </c>
-      <c r="D156" t="s">
-        <v>49</v>
-      </c>
       <c r="E156" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F156">
         <v>-222</v>
@@ -24902,7 +24919,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:50">
       <c r="A157">
         <v>606</v>
       </c>
@@ -24910,13 +24927,13 @@
         <v>116</v>
       </c>
       <c r="C157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" t="s">
         <v>52</v>
       </c>
-      <c r="D157" t="s">
-        <v>49</v>
-      </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F157">
         <v>726</v>
@@ -25054,7 +25071,7 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:50">
       <c r="A158">
         <v>614</v>
       </c>
@@ -25062,13 +25079,13 @@
         <v>117</v>
       </c>
       <c r="C158" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" t="s">
         <v>52</v>
       </c>
-      <c r="D158" t="s">
-        <v>49</v>
-      </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F158">
         <v>247</v>
@@ -25206,7 +25223,7 @@
         <v>6294</v>
       </c>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:50">
       <c r="A159">
         <v>622</v>
       </c>
@@ -25214,13 +25231,13 @@
         <v>118</v>
       </c>
       <c r="C159" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" t="s">
         <v>52</v>
       </c>
-      <c r="D159" t="s">
-        <v>49</v>
-      </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F159">
         <v>2267</v>
@@ -25358,7 +25375,7 @@
         <v>6928</v>
       </c>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:50">
       <c r="A160">
         <v>630</v>
       </c>
@@ -25366,13 +25383,13 @@
         <v>119</v>
       </c>
       <c r="C160" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" t="s">
         <v>52</v>
       </c>
-      <c r="D160" t="s">
-        <v>49</v>
-      </c>
       <c r="E160" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F160">
         <v>3024</v>
@@ -25510,7 +25527,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:50">
       <c r="A161">
         <v>638</v>
       </c>
@@ -25518,13 +25535,13 @@
         <v>120</v>
       </c>
       <c r="C161" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" t="s">
         <v>52</v>
       </c>
-      <c r="D161" t="s">
-        <v>49</v>
-      </c>
       <c r="E161" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F161">
         <v>2335</v>
@@ -25662,7 +25679,7 @@
         <v>9335</v>
       </c>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:50">
       <c r="A162">
         <v>646</v>
       </c>
@@ -25670,13 +25687,13 @@
         <v>121</v>
       </c>
       <c r="C162" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" t="s">
         <v>52</v>
       </c>
-      <c r="D162" t="s">
-        <v>49</v>
-      </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F162">
         <v>2179</v>
@@ -25814,7 +25831,7 @@
         <v>10423</v>
       </c>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:50">
       <c r="A163">
         <v>654</v>
       </c>
@@ -25822,13 +25839,13 @@
         <v>122</v>
       </c>
       <c r="C163" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163" t="s">
         <v>52</v>
       </c>
-      <c r="D163" t="s">
-        <v>49</v>
-      </c>
       <c r="E163" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F163">
         <v>2850</v>
@@ -25966,7 +25983,7 @@
         <v>10923</v>
       </c>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:50">
       <c r="A164">
         <v>662</v>
       </c>
@@ -25974,13 +25991,13 @@
         <v>123</v>
       </c>
       <c r="C164" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" t="s">
         <v>52</v>
       </c>
-      <c r="D164" t="s">
-        <v>49</v>
-      </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F164">
         <v>1588</v>
@@ -26118,7 +26135,7 @@
         <v>10758</v>
       </c>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:50">
       <c r="A165">
         <v>670</v>
       </c>
@@ -26126,13 +26143,13 @@
         <v>124</v>
       </c>
       <c r="C165" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" t="s">
         <v>52</v>
       </c>
-      <c r="D165" t="s">
-        <v>49</v>
-      </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F165">
         <v>1587</v>
@@ -26270,7 +26287,7 @@
         <v>10573</v>
       </c>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:50">
       <c r="A166">
         <v>678</v>
       </c>
@@ -26278,13 +26295,13 @@
         <v>125</v>
       </c>
       <c r="C166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" t="s">
         <v>52</v>
       </c>
-      <c r="D166" t="s">
-        <v>49</v>
-      </c>
       <c r="E166" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F166">
         <v>2614</v>
@@ -26422,7 +26439,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:50">
       <c r="A167">
         <v>686</v>
       </c>
@@ -26430,13 +26447,13 @@
         <v>126</v>
       </c>
       <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
         <v>52</v>
       </c>
-      <c r="D167" t="s">
-        <v>49</v>
-      </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F167">
         <v>1535</v>
@@ -26574,7 +26591,7 @@
         <v>13665</v>
       </c>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:50">
       <c r="A168">
         <v>694</v>
       </c>
@@ -26582,13 +26599,13 @@
         <v>127</v>
       </c>
       <c r="C168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" t="s">
         <v>52</v>
       </c>
-      <c r="D168" t="s">
-        <v>49</v>
-      </c>
       <c r="E168" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F168">
         <v>2048</v>
@@ -26726,7 +26743,7 @@
         <v>14752</v>
       </c>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:50">
       <c r="A169">
         <v>702</v>
       </c>
@@ -26734,13 +26751,13 @@
         <v>128</v>
       </c>
       <c r="C169" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" t="s">
         <v>52</v>
       </c>
-      <c r="D169" t="s">
-        <v>49</v>
-      </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F169">
         <v>3593</v>
@@ -26878,7 +26895,7 @@
         <v>17710</v>
       </c>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:50">
       <c r="A170">
         <v>710</v>
       </c>
@@ -26886,13 +26903,13 @@
         <v>129</v>
       </c>
       <c r="C170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" t="s">
         <v>52</v>
       </c>
-      <c r="D170" t="s">
-        <v>49</v>
-      </c>
       <c r="E170" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F170">
         <v>4282</v>
@@ -27030,7 +27047,7 @@
         <v>20252</v>
       </c>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:50">
       <c r="A171">
         <v>718</v>
       </c>
@@ -27038,13 +27055,13 @@
         <v>130</v>
       </c>
       <c r="C171" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" t="s">
         <v>52</v>
       </c>
-      <c r="D171" t="s">
-        <v>49</v>
-      </c>
       <c r="E171" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F171">
         <v>3441</v>
@@ -27182,7 +27199,7 @@
         <v>23185</v>
       </c>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:50">
       <c r="A172">
         <v>726</v>
       </c>
@@ -27190,13 +27207,13 @@
         <v>131</v>
       </c>
       <c r="C172" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" t="s">
         <v>52</v>
       </c>
-      <c r="D172" t="s">
-        <v>49</v>
-      </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F172">
         <v>3665</v>
@@ -27334,7 +27351,7 @@
         <v>23874</v>
       </c>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:50">
       <c r="A173">
         <v>734</v>
       </c>
@@ -27342,13 +27359,13 @@
         <v>132</v>
       </c>
       <c r="C173" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" t="s">
         <v>52</v>
       </c>
-      <c r="D173" t="s">
-        <v>49</v>
-      </c>
       <c r="E173" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F173">
         <v>5117</v>
@@ -27486,7 +27503,7 @@
         <v>26043</v>
       </c>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:50">
       <c r="A174">
         <v>742</v>
       </c>
@@ -27494,13 +27511,13 @@
         <v>133</v>
       </c>
       <c r="C174" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" t="s">
         <v>52</v>
       </c>
-      <c r="D174" t="s">
-        <v>49</v>
-      </c>
       <c r="E174" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F174">
         <v>6549</v>
@@ -27638,7 +27655,7 @@
         <v>26505</v>
       </c>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:50">
       <c r="A175">
         <v>750</v>
       </c>
@@ -27646,13 +27663,13 @@
         <v>134</v>
       </c>
       <c r="C175" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" t="s">
         <v>52</v>
       </c>
-      <c r="D175" t="s">
-        <v>49</v>
-      </c>
       <c r="E175" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F175">
         <v>7798</v>
@@ -27790,7 +27807,7 @@
         <v>28112</v>
       </c>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:50">
       <c r="A176">
         <v>758</v>
       </c>
@@ -27798,13 +27815,13 @@
         <v>135</v>
       </c>
       <c r="C176" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" t="s">
         <v>52</v>
       </c>
-      <c r="D176" t="s">
-        <v>49</v>
-      </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F176">
         <v>3704</v>
@@ -27942,7 +27959,7 @@
         <v>27954</v>
       </c>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:50">
       <c r="A177">
         <v>766</v>
       </c>
@@ -27950,13 +27967,13 @@
         <v>136</v>
       </c>
       <c r="C177" t="s">
+        <v>51</v>
+      </c>
+      <c r="D177" t="s">
         <v>52</v>
       </c>
-      <c r="D177" t="s">
-        <v>49</v>
-      </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F177">
         <v>3802</v>
@@ -28094,7 +28111,7 @@
         <v>26244</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:50">
       <c r="A178">
         <v>774</v>
       </c>
@@ -28102,13 +28119,13 @@
         <v>137</v>
       </c>
       <c r="C178" t="s">
+        <v>51</v>
+      </c>
+      <c r="D178" t="s">
         <v>52</v>
       </c>
-      <c r="D178" t="s">
-        <v>49</v>
-      </c>
       <c r="E178" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F178">
         <v>1549</v>
@@ -28246,7 +28263,7 @@
         <v>28208</v>
       </c>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:50">
       <c r="A179">
         <v>782</v>
       </c>
@@ -28254,13 +28271,13 @@
         <v>138</v>
       </c>
       <c r="C179" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" t="s">
         <v>52</v>
       </c>
-      <c r="D179" t="s">
-        <v>49</v>
-      </c>
       <c r="E179" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F179">
         <v>1610</v>
@@ -28398,7 +28415,7 @@
         <v>25124</v>
       </c>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:50">
       <c r="A180">
         <v>790</v>
       </c>
@@ -28406,13 +28423,13 @@
         <v>139</v>
       </c>
       <c r="C180" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" t="s">
         <v>52</v>
       </c>
-      <c r="D180" t="s">
-        <v>49</v>
-      </c>
       <c r="E180" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F180">
         <v>2124</v>
@@ -28550,7 +28567,7 @@
         <v>29409</v>
       </c>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:50">
       <c r="A181">
         <v>798</v>
       </c>
@@ -28558,13 +28575,13 @@
         <v>140</v>
       </c>
       <c r="C181" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" t="s">
         <v>52</v>
       </c>
-      <c r="D181" t="s">
-        <v>49</v>
-      </c>
       <c r="E181" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F181">
         <v>1690</v>
@@ -28702,7 +28719,7 @@
         <v>25836</v>
       </c>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:50">
       <c r="A182">
         <v>806</v>
       </c>
@@ -28710,13 +28727,13 @@
         <v>141</v>
       </c>
       <c r="C182" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" t="s">
         <v>52</v>
       </c>
-      <c r="D182" t="s">
-        <v>49</v>
-      </c>
       <c r="E182" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F182">
         <v>3514</v>
@@ -28854,7 +28871,7 @@
         <v>25186</v>
       </c>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:50">
       <c r="A183">
         <v>814</v>
       </c>
@@ -28862,13 +28879,13 @@
         <v>142</v>
       </c>
       <c r="C183" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" t="s">
         <v>52</v>
       </c>
-      <c r="D183" t="s">
-        <v>49</v>
-      </c>
       <c r="E183" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F183">
         <v>2518</v>
@@ -29006,7 +29023,7 @@
         <v>27095</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:50">
       <c r="A184">
         <v>822</v>
       </c>
@@ -29014,13 +29031,13 @@
         <v>143</v>
       </c>
       <c r="C184" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" t="s">
         <v>52</v>
       </c>
-      <c r="D184" t="s">
-        <v>49</v>
-      </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F184">
         <v>2432</v>
@@ -29158,7 +29175,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:50">
       <c r="A185">
         <v>830</v>
       </c>
@@ -29166,13 +29183,13 @@
         <v>144</v>
       </c>
       <c r="C185" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" t="s">
         <v>52</v>
       </c>
-      <c r="D185" t="s">
-        <v>49</v>
-      </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F185">
         <v>1126</v>
@@ -29310,7 +29327,7 @@
         <v>23454</v>
       </c>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:50">
       <c r="A186">
         <v>838</v>
       </c>
@@ -29318,13 +29335,13 @@
         <v>145</v>
       </c>
       <c r="C186" t="s">
+        <v>51</v>
+      </c>
+      <c r="D186" t="s">
         <v>52</v>
       </c>
-      <c r="D186" t="s">
-        <v>49</v>
-      </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F186">
         <v>1421</v>
@@ -29462,7 +29479,7 @@
         <v>21533</v>
       </c>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:50">
       <c r="A187">
         <v>846</v>
       </c>
@@ -29470,13 +29487,13 @@
         <v>146</v>
       </c>
       <c r="C187" t="s">
+        <v>51</v>
+      </c>
+      <c r="D187" t="s">
         <v>52</v>
       </c>
-      <c r="D187" t="s">
-        <v>49</v>
-      </c>
       <c r="E187" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F187">
         <v>2117</v>
@@ -29614,7 +29631,7 @@
         <v>20408</v>
       </c>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:50">
       <c r="A188">
         <v>854</v>
       </c>
@@ -29622,13 +29639,13 @@
         <v>147</v>
       </c>
       <c r="C188" t="s">
+        <v>51</v>
+      </c>
+      <c r="D188" t="s">
         <v>52</v>
       </c>
-      <c r="D188" t="s">
-        <v>49</v>
-      </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F188">
         <v>1399</v>
@@ -29766,7 +29783,7 @@
         <v>18456</v>
       </c>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:50">
       <c r="A189">
         <v>862</v>
       </c>
@@ -29774,13 +29791,13 @@
         <v>148</v>
       </c>
       <c r="C189" t="s">
+        <v>51</v>
+      </c>
+      <c r="D189" t="s">
         <v>52</v>
       </c>
-      <c r="D189" t="s">
-        <v>49</v>
-      </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F189">
         <v>1918</v>
@@ -29918,7 +29935,7 @@
         <v>16761</v>
       </c>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:50">
       <c r="A190">
         <v>870</v>
       </c>
@@ -29926,13 +29943,13 @@
         <v>149</v>
       </c>
       <c r="C190" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" t="s">
         <v>52</v>
       </c>
-      <c r="D190" t="s">
-        <v>49</v>
-      </c>
       <c r="E190" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F190">
         <v>1093</v>
@@ -30070,7 +30087,7 @@
         <v>14898</v>
       </c>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:50">
       <c r="A191">
         <v>878</v>
       </c>
@@ -30078,13 +30095,13 @@
         <v>150</v>
       </c>
       <c r="C191" t="s">
+        <v>51</v>
+      </c>
+      <c r="D191" t="s">
         <v>52</v>
       </c>
-      <c r="D191" t="s">
-        <v>49</v>
-      </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F191">
         <v>452</v>
@@ -30222,7 +30239,7 @@
         <v>12444</v>
       </c>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:50">
       <c r="A192">
         <v>886</v>
       </c>
@@ -30230,13 +30247,13 @@
         <v>151</v>
       </c>
       <c r="C192" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" t="s">
         <v>52</v>
       </c>
-      <c r="D192" t="s">
-        <v>49</v>
-      </c>
       <c r="E192" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F192">
         <v>1677</v>
@@ -30374,7 +30391,7 @@
         <v>12680</v>
       </c>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50">
       <c r="A193">
         <v>894</v>
       </c>
@@ -30382,13 +30399,13 @@
         <v>152</v>
       </c>
       <c r="C193" t="s">
+        <v>51</v>
+      </c>
+      <c r="D193" t="s">
         <v>52</v>
       </c>
-      <c r="D193" t="s">
-        <v>49</v>
-      </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F193">
         <v>1921</v>
@@ -30526,7 +30543,7 @@
         <v>14498</v>
       </c>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50">
       <c r="A194">
         <v>902</v>
       </c>
@@ -30534,13 +30551,13 @@
         <v>153</v>
       </c>
       <c r="C194" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" t="s">
         <v>52</v>
       </c>
-      <c r="D194" t="s">
-        <v>49</v>
-      </c>
       <c r="E194" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F194">
         <v>2143</v>
@@ -30678,7 +30695,7 @@
         <v>14724</v>
       </c>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50">
       <c r="A195">
         <v>910</v>
       </c>
@@ -30686,13 +30703,13 @@
         <v>154</v>
       </c>
       <c r="C195" t="s">
+        <v>51</v>
+      </c>
+      <c r="D195" t="s">
         <v>52</v>
       </c>
-      <c r="D195" t="s">
-        <v>49</v>
-      </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F195">
         <v>1597</v>
@@ -30830,7 +30847,7 @@
         <v>13866</v>
       </c>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50">
       <c r="A196">
         <v>918</v>
       </c>
@@ -30838,13 +30855,13 @@
         <v>155</v>
       </c>
       <c r="C196" t="s">
+        <v>51</v>
+      </c>
+      <c r="D196" t="s">
         <v>52</v>
       </c>
-      <c r="D196" t="s">
-        <v>49</v>
-      </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F196">
         <v>1591</v>
@@ -30982,7 +30999,7 @@
         <v>13045</v>
       </c>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50">
       <c r="A197">
         <v>926</v>
       </c>
@@ -30990,13 +31007,13 @@
         <v>156</v>
       </c>
       <c r="C197" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" t="s">
         <v>52</v>
       </c>
-      <c r="D197" t="s">
-        <v>49</v>
-      </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F197">
         <v>1561</v>
@@ -31135,8 +31152,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AX197">
-    <sortState ref="A2:AX197">
+  <autoFilter ref="A1:AX197" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX197">
       <sortCondition ref="C2:C197"/>
       <sortCondition ref="D2:D197"/>
       <sortCondition ref="E2:E197"/>
@@ -31150,19 +31167,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
